--- a/Client/ExcelConfig/Excel/LevelupMCoins.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMCoins.xlsx
@@ -62,7 +62,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,23 +71,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,59 +109,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,14 +123,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -178,14 +131,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,16 +184,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +415,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,217 +515,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1030,6 +1022,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -1093,13 +1086,13 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>435</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>30</v>
       </c>
       <c r="E4">
@@ -1110,13 +1103,13 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>200</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>435</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>30</v>
       </c>
       <c r="E5">
@@ -1127,13 +1120,13 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>400</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>435</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>30</v>
       </c>
       <c r="E6">
@@ -1144,13 +1137,13 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>600</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>435</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>30</v>
       </c>
       <c r="E7">
@@ -1161,13 +1154,13 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>800</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>435</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>30</v>
       </c>
       <c r="E8">
@@ -1178,13 +1171,13 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>435</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>30</v>
       </c>
       <c r="E9">
@@ -1195,13 +1188,13 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1200</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>435</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>40</v>
       </c>
       <c r="E10">
@@ -1212,13 +1205,13 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1400</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>435</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>40</v>
       </c>
       <c r="E11">
@@ -1229,13 +1222,13 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1600</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>435</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>40</v>
       </c>
       <c r="E12">
@@ -1246,13 +1239,13 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1800</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>435</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>40</v>
       </c>
       <c r="E13">
@@ -1263,13 +1256,13 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>2000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>435</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14">

--- a/Client/ExcelConfig/Excel/LevelupMCoins.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMCoins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,45 +72,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,6 +103,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -131,6 +179,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -138,78 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +224,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,163 +362,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +415,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,65 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,16 +474,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,133 +533,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,10 +1014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
@@ -1096,15 +1096,15 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
         <v>435</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1">
         <v>435</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1">
         <v>435</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="C8" s="1">
         <v>435</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C9" s="1">
         <v>435</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="1">
         <v>435</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C11" s="1">
         <v>435</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="C12" s="1">
         <v>435</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C13" s="1">
         <v>435</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="C14" s="1">
         <v>435</v>
@@ -1266,6 +1266,23 @@
         <v>40</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>435</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
